--- a/Sequencing/raw_data/16S_sequencing/16s_PCR/20231123_PCR_final.xlsx
+++ b/Sequencing/raw_data/16S_sequencing/16s_PCR/20231123_PCR_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u_erazo/Documents/Namibia/NAMIBIA/Project_Namibia_PCR/16s_sequencing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u_erazo/Documents/GitHub/Namibia_project/Sequencing/raw_data/16S_sequencing/16s_PCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70EBC9B-2605-3C49-B9E2-F859851E116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB1550-9184-B34A-B0F4-679C79C443B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="-2100" windowWidth="32480" windowHeight="21420" activeTab="1" xr2:uid="{C7911E21-4819-4941-BE4B-D79206BF0948}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="3" xr2:uid="{C7911E21-4819-4941-BE4B-D79206BF0948}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate_set-up DNA Plate16s" sheetId="2" r:id="rId1"/>
@@ -2704,8 +2704,8 @@
   </sheetPr>
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="F1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2720,7 +2720,7 @@
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="149" customFormat="1" ht="42">
+    <row r="1" spans="1:16" s="149" customFormat="1" ht="42">
       <c r="A1" s="148" t="s">
         <v>28</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="27" customFormat="1" ht="17" thickBot="1">
+    <row r="2" spans="1:16" s="27" customFormat="1" ht="17" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>31</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" s="27" customFormat="1" ht="17" thickBot="1">
+    <row r="3" spans="1:16" s="27" customFormat="1" ht="17" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>74</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" s="27" customFormat="1">
+    <row r="4" spans="1:16" s="27" customFormat="1">
       <c r="A4" s="24" t="s">
         <v>75</v>
       </c>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" s="27" customFormat="1">
+    <row r="5" spans="1:16" s="27" customFormat="1">
       <c r="A5" s="24" t="s">
         <v>76</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" s="27" customFormat="1">
+    <row r="6" spans="1:16" s="27" customFormat="1">
       <c r="A6" s="24" t="s">
         <v>77</v>
       </c>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" s="27" customFormat="1">
+    <row r="7" spans="1:16" s="27" customFormat="1">
       <c r="A7" s="24" t="s">
         <v>32</v>
       </c>
@@ -2927,8 +2927,12 @@
         <v>4</v>
       </c>
       <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15" s="27" customFormat="1">
+      <c r="P7" s="27">
+        <f>10*1/50</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="27" customFormat="1">
       <c r="A8" s="24" t="s">
         <v>78</v>
       </c>
@@ -2961,7 +2965,7 @@
       </c>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" s="27" customFormat="1">
+    <row r="9" spans="1:16" s="27" customFormat="1">
       <c r="A9" s="24" t="s">
         <v>79</v>
       </c>
@@ -2992,7 +2996,7 @@
       </c>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" s="27" customFormat="1">
+    <row r="10" spans="1:16" s="27" customFormat="1">
       <c r="A10" s="24" t="s">
         <v>80</v>
       </c>
@@ -3026,7 +3030,7 @@
       <c r="N10" s="39"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" s="27" customFormat="1" ht="17" thickBot="1">
+    <row r="11" spans="1:16" s="27" customFormat="1" ht="17" thickBot="1">
       <c r="A11" s="24" t="s">
         <v>81</v>
       </c>
@@ -3058,7 +3062,7 @@
       <c r="N11" s="43"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" s="27" customFormat="1">
+    <row r="12" spans="1:16" s="27" customFormat="1">
       <c r="A12" s="24" t="s">
         <v>82</v>
       </c>
@@ -3085,7 +3089,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" s="27" customFormat="1">
+    <row r="13" spans="1:16" s="27" customFormat="1">
       <c r="A13" s="24" t="s">
         <v>83</v>
       </c>
@@ -3110,7 +3114,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" s="27" customFormat="1" ht="17" thickBot="1">
+    <row r="14" spans="1:16" s="27" customFormat="1" ht="17" thickBot="1">
       <c r="A14" s="24" t="s">
         <v>33</v>
       </c>
@@ -3139,7 +3143,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" s="27" customFormat="1" ht="17" thickBot="1">
+    <row r="15" spans="1:16" s="27" customFormat="1" ht="17" thickBot="1">
       <c r="A15" s="24" t="s">
         <v>34</v>
       </c>
@@ -3168,7 +3172,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" s="27" customFormat="1">
+    <row r="16" spans="1:16" s="27" customFormat="1">
       <c r="A16" s="24" t="s">
         <v>35</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>9</v>
       </c>
       <c r="L19" s="51">
-        <f t="shared" si="0"/>
+        <f>L8*$L$14</f>
         <v>65</v>
       </c>
       <c r="M19" s="45" t="s">
@@ -8086,8 +8090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955C3E-6B93-0543-A951-521DB3AC5588}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
